--- a/Tools/Luban/Datas/Affixes.xlsx
+++ b/Tools/Luban/Datas/Affixes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2E7C82-7EFE-466F-82C4-40D20D999188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDF757-E5FA-4B03-8108-8B1BB749BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>value_range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -108,6 +104,10 @@
   </si>
   <si>
     <t>value_range#sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovementSpeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +570,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -609,10 +609,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="8"/>
@@ -646,10 +646,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="7"/>
@@ -710,10 +710,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="7"/>
@@ -742,13 +742,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="4"/>
